--- a/opd.xlsx
+++ b/opd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\Programs\Python\Python37-32\opd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\AppData\Local\Programs\Python\Python37-32\Test_Heroku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4197,7 +4197,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Требуемые компетенции</t>
+    <t>Требуемые области деятельности</t>
   </si>
 </sst>
 </file>
